--- a/conejo/one_fictitious/formatted_data1.xlsx
+++ b/conejo/one_fictitious/formatted_data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\pyComms\conejo\one_fictitious\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1A6DA6-F940-4A5D-9CDD-77B956BC6C82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDD5C7A-F558-4AED-B319-833F07462D77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B2B3255C-86D4-4B94-9983-7EF4502B7862}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{B2B3255C-86D4-4B94-9983-7EF4502B7862}"/>
   </bookViews>
   <sheets>
     <sheet name="busses" sheetId="2" r:id="rId1"/>
@@ -3204,7 +3204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0F8381-333D-427E-B2F5-663E2125B366}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -4942,8 +4942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E240635E-BFDB-4BD5-AB72-96E8013830DA}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5024,7 +5024,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="K2">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="L2">
         <v>208</v>
@@ -5068,7 +5068,7 @@
         <v>0.158</v>
       </c>
       <c r="K3">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="L3">
         <v>600</v>
@@ -5112,7 +5112,7 @@
         <v>0.155</v>
       </c>
       <c r="K4">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="L4">
         <v>600</v>
@@ -5173,6 +5173,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/conejo/one_fictitious/formatted_data1.xlsx
+++ b/conejo/one_fictitious/formatted_data1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\pyComms\conejo\one_fictitious\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDD5C7A-F558-4AED-B319-833F07462D77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B86ADD-D0E0-49C2-B31A-6F4E9AAF84F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{B2B3255C-86D4-4B94-9983-7EF4502B7862}"/>
   </bookViews>
@@ -4943,7 +4943,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5024,7 +5024,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="K2">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="L2">
         <v>208</v>
@@ -5068,7 +5068,7 @@
         <v>0.158</v>
       </c>
       <c r="K3">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="L3">
         <v>600</v>
@@ -5112,7 +5112,7 @@
         <v>0.155</v>
       </c>
       <c r="K4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="L4">
         <v>600</v>

--- a/conejo/one_fictitious/formatted_data1.xlsx
+++ b/conejo/one_fictitious/formatted_data1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\pyComms\conejo\one_fictitious\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B86ADD-D0E0-49C2-B31A-6F4E9AAF84F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7363B1E4-2428-4577-855C-0FB3B82EF73D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{B2B3255C-86D4-4B94-9983-7EF4502B7862}"/>
   </bookViews>
@@ -3204,8 +3204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0F8381-333D-427E-B2F5-663E2125B366}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5112,7 +5112,7 @@
         <v>0.155</v>
       </c>
       <c r="K4">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="L4">
         <v>600</v>
@@ -5156,7 +5156,7 @@
         <v>0.20300000000000001</v>
       </c>
       <c r="K5">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="L5">
         <v>600</v>

--- a/conejo/one_fictitious/formatted_data1.xlsx
+++ b/conejo/one_fictitious/formatted_data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\pyComms\conejo\one_fictitious\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7363B1E4-2428-4577-855C-0FB3B82EF73D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{8199A6AB-98FD-43BA-B668-C9A112BBD911}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{B2B3255C-86D4-4B94-9983-7EF4502B7862}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B2B3255C-86D4-4B94-9983-7EF4502B7862}"/>
   </bookViews>
   <sheets>
     <sheet name="busses" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <definedName name="ExternalData_2" localSheetId="1" hidden="1">gens!$A$1:$H$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -410,15 +411,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -426,24 +433,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -461,26 +475,6 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{809B915B-8931-40AB-907F-F8364F2101D4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="12" unboundColumnsRight="1">
-    <queryTableFields count="11">
-      <queryTableField id="1" name="Column1" tableColumnId="1"/>
-      <queryTableField id="2" name="Column2" tableColumnId="2"/>
-      <queryTableField id="3" name="Column3" tableColumnId="3"/>
-      <queryTableField id="4" name="Column4" tableColumnId="4"/>
-      <queryTableField id="5" name="Column5" tableColumnId="5"/>
-      <queryTableField id="6" name="Column6" tableColumnId="6"/>
-      <queryTableField id="7" name="Column7" tableColumnId="7"/>
-      <queryTableField id="8" name="Column8" tableColumnId="8"/>
-      <queryTableField id="9" name="Column9" tableColumnId="9"/>
-      <queryTableField id="10" name="Column10" tableColumnId="10"/>
-      <queryTableField id="11" dataBound="0" tableColumnId="11"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="3" xr16:uid="{C2E72809-5A3C-4D51-AA88-BEAAC0C7868B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="14" unboundColumnsRight="5">
     <queryTableFields count="13">
@@ -502,55 +496,12 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="4" xr16:uid="{AF929CBE-9A98-4FB1-8600-09AC1EDBF9A8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="15">
-    <queryTableFields count="14">
-      <queryTableField id="1" name="Column1" tableColumnId="1"/>
-      <queryTableField id="2" name="Column2" tableColumnId="2"/>
-      <queryTableField id="3" name="Column3" tableColumnId="3"/>
-      <queryTableField id="4" name="Column4" tableColumnId="4"/>
-      <queryTableField id="5" name="Column5" tableColumnId="5"/>
-      <queryTableField id="6" name="Column6" tableColumnId="6"/>
-      <queryTableField id="7" name="Column7" tableColumnId="7"/>
-      <queryTableField id="8" name="Column8" tableColumnId="8"/>
-      <queryTableField id="9" name="Column9" tableColumnId="9"/>
-      <queryTableField id="10" name="Column10" tableColumnId="10"/>
-      <queryTableField id="11" name="Column11" tableColumnId="11"/>
-      <queryTableField id="12" name="Column12" tableColumnId="12"/>
-      <queryTableField id="13" name="Column13" tableColumnId="13"/>
-      <queryTableField id="14" name="Column14" tableColumnId="14"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9CB3CDE-B038-4101-9B2C-0A5D938260EC}" name="bus_mod" displayName="bus_mod" ref="A1:K74" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K74" xr:uid="{B40B34FA-C208-463E-BA37-17D45E5E281F}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{9F5EBC42-A55C-48F5-8886-A6EA23FD2FAC}" uniqueName="1" name="Bus #" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{44604493-9553-4945-BB8C-AA93E67A0B66}" uniqueName="2" name="Bus Name" queryTableFieldId="2" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{AC693E4A-B422-4925-A16F-E641335F7D1A}" uniqueName="3" name="Bus Type" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{E2833BE0-3D07-4DE1-99C7-E85A1DC2B47B}" uniqueName="4" name="MW Load" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{386A8496-9D0C-45D0-9E24-DB5287E8A676}" uniqueName="5" name="MVAR Load" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{A1A42024-2032-4239-A527-8A6ABC2FB104}" uniqueName="6" name="GL" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{62C2524B-3235-4006-8BFF-D07E9A7E7EBC}" uniqueName="7" name="BL" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{EC937534-E05E-40BB-8196-7E28917BDBDF}" uniqueName="8" name="Sub Area" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{ECB1BBAB-353B-4759-A863-57FB41A64B41}" uniqueName="9" name="Base kV" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{3BB5D7B1-70CE-4A3E-9AB4-F74324856362}" uniqueName="10" name="Zone #" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{9558C6A3-AE11-4DBB-93FA-E5B331F28182}" uniqueName="11" name="Bus #2" queryTableFieldId="11"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C32C5A8E-1EB4-40BF-A5E4-5BAE9A663C75}" name="gens__2" displayName="gens__2" ref="A1:M101" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:M101" xr:uid="{3E102DA1-9D67-42AF-89EF-2EC99EBEC2BA}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{9FFFB1AD-8AA2-4576-9A62-F2B5575162E1}" uniqueName="1" name="Bus #" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{AACEDBFC-10D2-49B0-A7D0-CC5D01B5EDAB}" uniqueName="2" name="Gen Type" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{AACEDBFC-10D2-49B0-A7D0-CC5D01B5EDAB}" uniqueName="2" name="Gen Type" queryTableFieldId="2" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{43BBEC89-052E-455E-BC42-619D22857D54}" uniqueName="3" name="Bus ID #" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{93340665-E2D4-4863-BF4C-E5AE011A0E7E}" uniqueName="4" name="Pgen" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{C5CA14A4-73A2-401F-BBFF-2EEFC2B50508}" uniqueName="5" name="Qgen " queryTableFieldId="5"/>
@@ -562,29 +513,6 @@
     <tableColumn id="11" xr3:uid="{A2E1354A-A5E6-4465-9B67-349FC30DCA6D}" uniqueName="11" name="IC" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{4C9D2BA1-1E5D-4444-AA6C-779281B45B8C}" uniqueName="12" name="ID #" queryTableFieldId="12"/>
     <tableColumn id="13" xr3:uid="{AB2EB82D-D94A-40FA-A04C-5D12BC8255D4}" uniqueName="13" name="genCostFactor" queryTableFieldId="13"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E0A57F45-AC3E-41D1-8307-A9F753455909}" name="lines_mod" displayName="lines_mod" ref="A1:N121" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:N121" xr:uid="{427D55AC-E4CC-4702-8116-E6A867A1E746}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{B6B6A510-3601-446A-A8E8-27038745CC75}" uniqueName="1" name="ID #" queryTableFieldId="1" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{82005542-E837-49AC-B6F6-64B1A25E687E}" uniqueName="2" name="From Bus" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{55084276-1E30-4EED-AF3D-CC88F71BE4AD}" uniqueName="3" name="To Bus" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{C750F9C4-E6CB-4424-8D6C-FA21A613E72C}" uniqueName="4" name="L - miles" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{EF24ADC4-233E-404F-961C-713C35CF60E7}" uniqueName="5" name="Perm. Lam-p" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{F6670B01-8C63-46E7-A734-F0EF3417FD37}" uniqueName="6" name="Dur" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{DC0C322C-3BF3-4A62-8CC4-8B6B9D1DE792}" uniqueName="7" name="Tram Lam-t" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{1CDC7721-B6B9-4D90-A68A-FB963C809B28}" uniqueName="8" name="R pu" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{A08EA250-71DC-46D7-AE75-B7A9ED0FC7E4}" uniqueName="9" name="X pu" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{825E8A15-8A09-4755-AE07-64E597EC00A9}" uniqueName="10" name="B pu" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{E9A148DC-FAD5-468F-BFC2-9A5F4A7072EE}" uniqueName="11" name="Conv MVA" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{11C8652B-16BB-4F2A-AD09-AE73E35ACF1E}" uniqueName="12" name="LTE MVA" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{587D0F35-B2F0-4A2D-BC24-5739E463F0E6}" uniqueName="13" name="STE MVA" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{9F86D822-CBA8-431C-9E55-7ABD8E57A0B5}" uniqueName="14" name="Tr pu" queryTableFieldId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -890,7 +818,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="D2" sqref="D2:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,7 +872,7 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>108</v>
       </c>
       <c r="E2">
@@ -979,7 +907,7 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>97</v>
       </c>
       <c r="E3">
@@ -1014,7 +942,7 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>180</v>
       </c>
       <c r="E4">
@@ -1049,7 +977,7 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>74</v>
       </c>
       <c r="E5">
@@ -1084,7 +1012,7 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>71</v>
       </c>
       <c r="E6">
@@ -1119,7 +1047,7 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>136</v>
       </c>
       <c r="E7">
@@ -1154,7 +1082,7 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>125</v>
       </c>
       <c r="E8">
@@ -1189,7 +1117,7 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>171</v>
       </c>
       <c r="E9">
@@ -1224,7 +1152,7 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>175</v>
       </c>
       <c r="E10">
@@ -1259,7 +1187,7 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>195</v>
       </c>
       <c r="E11">
@@ -1294,7 +1222,7 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12">
@@ -1329,7 +1257,7 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13">
@@ -1364,7 +1292,7 @@
       <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>265</v>
       </c>
       <c r="E14">
@@ -1399,7 +1327,7 @@
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>194</v>
       </c>
       <c r="E15">
@@ -1434,7 +1362,7 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>317</v>
       </c>
       <c r="E16">
@@ -1469,7 +1397,7 @@
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>100</v>
       </c>
       <c r="E17">
@@ -1504,7 +1432,7 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18">
@@ -1539,7 +1467,7 @@
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>333</v>
       </c>
       <c r="E19">
@@ -1574,7 +1502,7 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>181</v>
       </c>
       <c r="E20">
@@ -1609,7 +1537,7 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>128</v>
       </c>
       <c r="E21">
@@ -1644,7 +1572,7 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22">
@@ -1679,7 +1607,7 @@
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>0</v>
       </c>
       <c r="E23">
@@ -1714,7 +1642,7 @@
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24">
@@ -1749,7 +1677,7 @@
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>0</v>
       </c>
       <c r="E25">
@@ -1776,9 +1704,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -1787,7 +1712,7 @@
   <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="K2" sqref="K2:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3204,8 +3129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0F8381-333D-427E-B2F5-663E2125B366}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4932,9 +4857,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -4942,8 +4864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E240635E-BFDB-4BD5-AB72-96E8013830DA}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5024,7 +4946,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="K2">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="L2">
         <v>208</v>
@@ -5068,7 +4990,7 @@
         <v>0.158</v>
       </c>
       <c r="K3">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="L3">
         <v>600</v>
@@ -5112,7 +5034,7 @@
         <v>0.155</v>
       </c>
       <c r="K4">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="L4">
         <v>600</v>
@@ -5156,7 +5078,7 @@
         <v>0.20300000000000001</v>
       </c>
       <c r="K5">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="L5">
         <v>600</v>

--- a/conejo/one_fictitious/formatted_data1.xlsx
+++ b/conejo/one_fictitious/formatted_data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\pyComms\conejo\one_fictitious\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{8199A6AB-98FD-43BA-B668-C9A112BBD911}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDC715A-2537-4940-9B45-4AD858A60559}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B2B3255C-86D4-4B94-9983-7EF4502B7862}"/>
+    <workbookView xWindow="5400" yWindow="2475" windowWidth="15720" windowHeight="12465" activeTab="3" xr2:uid="{B2B3255C-86D4-4B94-9983-7EF4502B7862}"/>
   </bookViews>
   <sheets>
     <sheet name="busses" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <definedName name="ExternalData_2" localSheetId="1" hidden="1">gens!$A$1:$H$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="109">
   <si>
     <t>Abel</t>
   </si>
@@ -233,9 +232,6 @@
     <t>A22</t>
   </si>
   <si>
-    <t>AB2</t>
-  </si>
-  <si>
     <t>A23</t>
   </si>
   <si>
@@ -282,12 +278,6 @@
   </si>
   <si>
     <t>A34</t>
-  </si>
-  <si>
-    <t>AB3</t>
-  </si>
-  <si>
-    <t>CA-1</t>
   </si>
   <si>
     <t>ID #</t>
@@ -859,7 +849,7 @@
         <v>33</v>
       </c>
       <c r="K1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1725,40 +1715,40 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" t="s">
         <v>105</v>
       </c>
-      <c r="E1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" t="s">
         <v>108</v>
-      </c>
-      <c r="L1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1766,7 +1756,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1807,7 +1797,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1848,7 +1838,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1889,7 +1879,7 @@
         <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1930,7 +1920,7 @@
         <v>102</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1971,7 +1961,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2012,7 +2002,7 @@
         <v>102</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -2053,7 +2043,7 @@
         <v>102</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -2094,7 +2084,7 @@
         <v>107</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2135,7 +2125,7 @@
         <v>107</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2176,7 +2166,7 @@
         <v>107</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -2217,7 +2207,7 @@
         <v>113</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2258,7 +2248,7 @@
         <v>113</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2299,7 +2289,7 @@
         <v>113</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -2340,7 +2330,7 @@
         <v>114</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2381,7 +2371,7 @@
         <v>115</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2422,7 +2412,7 @@
         <v>115</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -2463,7 +2453,7 @@
         <v>115</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -2504,7 +2494,7 @@
         <v>115</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -2545,7 +2535,7 @@
         <v>115</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -2586,7 +2576,7 @@
         <v>115</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -2627,7 +2617,7 @@
         <v>116</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2668,7 +2658,7 @@
         <v>118</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2709,7 +2699,7 @@
         <v>121</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2750,7 +2740,7 @@
         <v>122</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2791,7 +2781,7 @@
         <v>122</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -2832,7 +2822,7 @@
         <v>122</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -2873,7 +2863,7 @@
         <v>122</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -2914,7 +2904,7 @@
         <v>122</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -2955,7 +2945,7 @@
         <v>122</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -2996,7 +2986,7 @@
         <v>123</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3037,7 +3027,7 @@
         <v>123</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -3078,7 +3068,7 @@
         <v>123</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -3129,7 +3119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0F8381-333D-427E-B2F5-663E2125B366}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -3141,46 +3131,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>80</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>81</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>82</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>83</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>84</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>85</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>86</v>
-      </c>
-      <c r="L1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" t="s">
-        <v>88</v>
-      </c>
-      <c r="N1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -4153,7 +4143,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24">
         <v>114</v>
@@ -4197,7 +4187,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <v>115</v>
@@ -4241,7 +4231,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26">
         <v>115</v>
@@ -4285,7 +4275,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <v>115</v>
@@ -4329,7 +4319,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28">
         <v>115</v>
@@ -4373,7 +4363,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29">
         <v>116</v>
@@ -4417,7 +4407,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30">
         <v>116</v>
@@ -4461,7 +4451,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31">
         <v>117</v>
@@ -4505,7 +4495,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32">
         <v>117</v>
@@ -4549,7 +4539,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33">
         <v>118</v>
@@ -4593,7 +4583,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34">
         <v>118</v>
@@ -4637,7 +4627,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35">
         <v>119</v>
@@ -4681,7 +4671,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36">
         <v>119</v>
@@ -4725,7 +4715,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37">
         <v>120</v>
@@ -4769,7 +4759,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38">
         <v>120</v>
@@ -4813,7 +4803,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39">
         <v>121</v>
@@ -4864,7 +4854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E240635E-BFDB-4BD5-AB72-96E8013830DA}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -4872,46 +4862,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>80</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>81</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>82</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>83</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>84</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>85</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>86</v>
-      </c>
-      <c r="L1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" t="s">
-        <v>88</v>
-      </c>
-      <c r="N1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -4946,7 +4936,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="K2">
-        <v>175</v>
+        <v>500</v>
       </c>
       <c r="L2">
         <v>208</v>
@@ -4955,138 +4945,6 @@
         <v>220</v>
       </c>
       <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3">
-        <v>113</v>
-      </c>
-      <c r="C3">
-        <v>215</v>
-      </c>
-      <c r="D3">
-        <v>52</v>
-      </c>
-      <c r="E3">
-        <v>0.47</v>
-      </c>
-      <c r="F3">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>1.3</v>
-      </c>
-      <c r="H3">
-        <v>0.01</v>
-      </c>
-      <c r="I3">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="J3">
-        <v>0.158</v>
-      </c>
-      <c r="K3">
-        <v>500</v>
-      </c>
-      <c r="L3">
-        <v>600</v>
-      </c>
-      <c r="M3">
-        <v>625</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4">
-        <v>123</v>
-      </c>
-      <c r="C4">
-        <v>217</v>
-      </c>
-      <c r="D4">
-        <v>51</v>
-      </c>
-      <c r="E4">
-        <v>0.46</v>
-      </c>
-      <c r="F4">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>1.3</v>
-      </c>
-      <c r="H4">
-        <v>0.01</v>
-      </c>
-      <c r="I4">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="J4">
-        <v>0.155</v>
-      </c>
-      <c r="K4">
-        <v>500</v>
-      </c>
-      <c r="L4">
-        <v>600</v>
-      </c>
-      <c r="M4">
-        <v>625</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5">
-        <v>325</v>
-      </c>
-      <c r="C5">
-        <v>121</v>
-      </c>
-      <c r="D5">
-        <v>67</v>
-      </c>
-      <c r="E5">
-        <v>0.52</v>
-      </c>
-      <c r="F5">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>1.6</v>
-      </c>
-      <c r="H5">
-        <v>1.2E-2</v>
-      </c>
-      <c r="I5">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="J5">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="K5">
-        <v>500</v>
-      </c>
-      <c r="L5">
-        <v>600</v>
-      </c>
-      <c r="M5">
-        <v>625</v>
-      </c>
-      <c r="N5">
         <v>0</v>
       </c>
     </row>
